--- a/Excel/ObjectConfig.xlsx
+++ b/Excel/ObjectConfig.xlsx
@@ -7,9 +7,8 @@
     <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Monster" sheetId="2" r:id="rId1"/>
-    <sheet name="Npc" sheetId="3" r:id="rId2"/>
-    <sheet name="#定义" sheetId="4" r:id="rId3"/>
+    <sheet name="Object" sheetId="2" r:id="rId1"/>
+    <sheet name="#定义" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -58,6 +57,9 @@
     <t>位置</t>
   </si>
   <si>
+    <t>存货时间</t>
+  </si>
+  <si>
     <t>身高</t>
   </si>
   <si>
@@ -82,6 +84,9 @@
     <t>Position</t>
   </si>
   <si>
+    <t>AliveTime</t>
+  </si>
+  <si>
     <t>Height</t>
   </si>
   <si>
@@ -104,9 +109,6 @@
   </si>
   <si>
     <t>P_001</t>
-  </si>
-  <si>
-    <t>Id(5000起)</t>
   </si>
   <si>
     <t>对象类型</t>
@@ -194,14 +196,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,149 +692,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1190,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:L6"/>
+  <dimension ref="C2:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1203,30 +1198,30 @@
     <col min="3" max="4" width="12.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="17.75" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="7.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4"/>
+    <col min="13" max="13" width="17.75" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:10">
+    <row r="2" spans="5:11">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:13">
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1257,68 +1252,77 @@
       <c r="L3" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="M3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:13">
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:13">
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="3:12">
+    <row r="6" s="3" customFormat="1" spans="3:13">
       <c r="C6" s="3">
         <v>2001</v>
       </c>
@@ -1329,22 +1333,25 @@
         <v>5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
       </c>
       <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>178</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>68</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>100</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1355,176 +1362,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C2:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="5" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="17.75" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="5:12">
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12">
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="3:12">
-      <c r="C6" s="3">
-        <v>5001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>178</v>
-      </c>
-      <c r="J6" s="3">
-        <v>68</v>
-      </c>
-      <c r="K6" s="3">
-        <v>100</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="G1:N10"/>
@@ -1540,139 +1377,139 @@
   <sheetData>
     <row r="1" spans="7:13">
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="7:14">
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2">
         <v>2</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="7:14">
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2">
         <v>3</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="7:14">
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2">
         <v>4</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="7:14">
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2">
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5" s="2">
         <v>5</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="7:14">
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2">
         <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2">
         <v>6</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="7:14">
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2">
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2">
         <v>7</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="7:14">
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2">
         <v>7</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="7:8">
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2">
         <v>8</v>
@@ -1680,7 +1517,7 @@
     </row>
     <row r="10" spans="7:8">
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2">
         <v>10</v>
